--- a/a1/a1.xlsx
+++ b/a1/a1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/CurtisLui/Documents/Documents/SFU /4th Year/SUMMER 2020/CMPT 310/aima-python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE3344D0-61A9-A34F-900C-D5C72B8F111F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95F884C1-A680-3A4B-8984-B31CC190768F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="500" yWindow="460" windowWidth="37900" windowHeight="21140" xr2:uid="{423D17DF-81E2-8D47-A949-B41332F7DC77}"/>
   </bookViews>
@@ -150,10 +150,10 @@
     <t>(3, 1, 2, 6, 0, 4, 5, 7, 8)</t>
   </si>
   <si>
-    <t>From the data, the Manhattan Distance heuristic performed better than the Misplaced Tile. We can see this from the A*-search using the max of the misplaced tile heuristic and the Manhattan distance heuristic. All of the results from the max function used the Manhattan distance. This infers that the misplaced tile heuristic was a major underestimate and the manhattan distance does a good job at estimating the costs, but never an overestimate. Each algorithm took the same length and same paths, but we can see that the misplaced tile heuristic had a higher average of nodes removed from the frontier compared to the manhattan distance. This indicates that the heuristic was not as accurate and caused A*-search to go down the wrong edges. Also, the running time of the misplaced tile heuristic is significantly greater than the manhattan distance.</t>
-  </si>
-  <si>
     <t>The average solve times of all the algorithms are significantly less than the duck puzzle. From this data, we can infer that the Duck puzzle is much easier than the 8 Puzzle. When looking at the average solve times for both the misplaced and manhattan heuristic, they do not differ by a lot as compared to the 8-puzzle solve times. Also, the average number of nodes that are removed from the frontier is significantly less than the tests in the 8 puzzle. When looking at the average number of nodes removed from the frontier, we can still see that the manhattan distance is a better heuristic than the misplaced tile. However, the misplaced tile heuristic does not perform significantly worse for the duck-puzzle.</t>
+  </si>
+  <si>
+    <t>From the data, the Manhattan Distance heuristic performed better than the Misplaced Tile. We can see this from the A*-search using the max of the misplaced tile heuristic and the Manhattan distance heuristic. All of the results from the max function used the Manhattan distance. This infers that the misplaced tile heuristic was a major underestimate and the manhattan distance does a good job at estimating the costs, but never an overestimate. Each algorithm took the same length and same paths, but we can see that the misplaced tile heuristic had a higher average of nodes removed from the frontier compared to the manhattan distance. This indicates that the heuristic was not as accurate and caused A*-search to go down the wrong edges. Also, the running time of the misplaced tile heuristic is significantly greater than the manhattan distance. Both misplaced and manhattan distance are admissible, but the manhattan distance is better because it tends to be closer to the true number of moves</t>
   </si>
 </sst>
 </file>
@@ -356,6 +356,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -364,18 +376,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -693,8 +693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72999274-A13A-4147-AA55-324BBD695605}">
   <dimension ref="A1:P43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3:P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -710,42 +710,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
     </row>
     <row r="2" spans="1:16" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="24" t="s">
+      <c r="C2" s="26"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="21" t="s">
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="22"/>
-      <c r="J2" s="23"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="27"/>
       <c r="K2" s="1"/>
-      <c r="L2" s="24" t="s">
+      <c r="L2" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
     </row>
     <row r="3" spans="1:16" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -778,13 +778,13 @@
       <c r="J3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
+      <c r="L3" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
@@ -817,11 +817,11 @@
       <c r="J4" s="13">
         <v>15</v>
       </c>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
@@ -854,11 +854,11 @@
       <c r="J5" s="10">
         <v>342</v>
       </c>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
@@ -891,11 +891,11 @@
       <c r="J6" s="10">
         <v>2972</v>
       </c>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26"/>
-      <c r="P6" s="26"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
@@ -928,11 +928,11 @@
       <c r="J7" s="10">
         <v>89</v>
       </c>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="26"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
@@ -965,11 +965,11 @@
       <c r="J8" s="10">
         <v>420</v>
       </c>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
@@ -1002,11 +1002,11 @@
       <c r="J9" s="10">
         <v>695</v>
       </c>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="26"/>
-      <c r="O9" s="26"/>
-      <c r="P9" s="26"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
@@ -1039,11 +1039,11 @@
       <c r="J10" s="10">
         <v>2013</v>
       </c>
-      <c r="L10" s="26"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="26"/>
-      <c r="P10" s="26"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
@@ -1076,11 +1076,11 @@
       <c r="J11" s="10">
         <v>366</v>
       </c>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
@@ -1113,11 +1113,11 @@
       <c r="J12" s="10">
         <v>467</v>
       </c>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="26"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
@@ -1150,11 +1150,11 @@
       <c r="J13" s="10">
         <v>282</v>
       </c>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="26"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
@@ -1187,11 +1187,11 @@
       <c r="J14" s="10">
         <v>312</v>
       </c>
-      <c r="L14" s="26"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="26"/>
-      <c r="O14" s="26"/>
-      <c r="P14" s="26"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
@@ -1204,34 +1204,34 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="26"/>
-      <c r="P15" s="26"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
     </row>
     <row r="16" spans="1:16" ht="19" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="24" t="s">
+      <c r="C16" s="26"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="21" t="s">
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="I16" s="22"/>
-      <c r="J16" s="23"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="26"/>
-      <c r="P16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="27"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
     </row>
     <row r="17" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
@@ -1264,11 +1264,11 @@
       <c r="J17" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="L17" s="26"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="26"/>
-      <c r="P17" s="26"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
@@ -1310,11 +1310,11 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="L18" s="26"/>
-      <c r="M18" s="26"/>
-      <c r="N18" s="26"/>
-      <c r="O18" s="26"/>
-      <c r="P18" s="26"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="21"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
@@ -1356,11 +1356,11 @@
         <f t="shared" si="1"/>
         <v>2972</v>
       </c>
-      <c r="L19" s="26"/>
-      <c r="M19" s="26"/>
-      <c r="N19" s="26"/>
-      <c r="O19" s="26"/>
-      <c r="P19" s="26"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="21"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
@@ -1402,11 +1402,11 @@
         <f t="shared" si="2"/>
         <v>724.81818181818187</v>
       </c>
-      <c r="L20" s="26"/>
-      <c r="M20" s="26"/>
-      <c r="N20" s="26"/>
-      <c r="O20" s="26"/>
-      <c r="P20" s="26"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="21"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
@@ -1451,41 +1451,41 @@
     </row>
     <row r="22" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="23" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="A23" s="25" t="s">
+      <c r="A23" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
     </row>
     <row r="24" spans="1:16" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="22"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="22" t="s">
+      <c r="C24" s="26"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="21" t="s">
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="I24" s="22"/>
-      <c r="J24" s="23"/>
-      <c r="L24" s="24" t="s">
+      <c r="I24" s="26"/>
+      <c r="J24" s="27"/>
+      <c r="L24" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="M24" s="24"/>
-      <c r="N24" s="24"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="23"/>
     </row>
     <row r="25" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
@@ -1518,13 +1518,13 @@
       <c r="J25" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="L25" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="M25" s="27"/>
-      <c r="N25" s="27"/>
-      <c r="O25" s="27"/>
-      <c r="P25" s="27"/>
+      <c r="L25" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="M25" s="22"/>
+      <c r="N25" s="22"/>
+      <c r="O25" s="22"/>
+      <c r="P25" s="22"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
@@ -1557,11 +1557,11 @@
       <c r="J26" s="19">
         <v>121</v>
       </c>
-      <c r="L26" s="27"/>
-      <c r="M26" s="27"/>
-      <c r="N26" s="27"/>
-      <c r="O26" s="27"/>
-      <c r="P26" s="27"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="22"/>
+      <c r="O26" s="22"/>
+      <c r="P26" s="22"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
@@ -1594,11 +1594,11 @@
       <c r="J27" s="19">
         <v>65</v>
       </c>
-      <c r="L27" s="27"/>
-      <c r="M27" s="27"/>
-      <c r="N27" s="27"/>
-      <c r="O27" s="27"/>
-      <c r="P27" s="27"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="22"/>
+      <c r="P27" s="22"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
@@ -1631,11 +1631,11 @@
       <c r="J28" s="19">
         <v>9</v>
       </c>
-      <c r="L28" s="27"/>
-      <c r="M28" s="27"/>
-      <c r="N28" s="27"/>
-      <c r="O28" s="27"/>
-      <c r="P28" s="27"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="22"/>
+      <c r="O28" s="22"/>
+      <c r="P28" s="22"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
@@ -1668,11 +1668,11 @@
       <c r="J29" s="19">
         <v>67</v>
       </c>
-      <c r="L29" s="27"/>
-      <c r="M29" s="27"/>
-      <c r="N29" s="27"/>
-      <c r="O29" s="27"/>
-      <c r="P29" s="27"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="22"/>
+      <c r="O29" s="22"/>
+      <c r="P29" s="22"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
@@ -1705,11 +1705,11 @@
       <c r="J30" s="19">
         <v>363</v>
       </c>
-      <c r="L30" s="27"/>
-      <c r="M30" s="27"/>
-      <c r="N30" s="27"/>
-      <c r="O30" s="27"/>
-      <c r="P30" s="27"/>
+      <c r="L30" s="22"/>
+      <c r="M30" s="22"/>
+      <c r="N30" s="22"/>
+      <c r="O30" s="22"/>
+      <c r="P30" s="22"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
@@ -1742,11 +1742,11 @@
       <c r="J31" s="19">
         <v>310</v>
       </c>
-      <c r="L31" s="27"/>
-      <c r="M31" s="27"/>
-      <c r="N31" s="27"/>
-      <c r="O31" s="27"/>
-      <c r="P31" s="27"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="22"/>
+      <c r="N31" s="22"/>
+      <c r="O31" s="22"/>
+      <c r="P31" s="22"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
@@ -1779,11 +1779,11 @@
       <c r="J32" s="19">
         <v>70</v>
       </c>
-      <c r="L32" s="27"/>
-      <c r="M32" s="27"/>
-      <c r="N32" s="27"/>
-      <c r="O32" s="27"/>
-      <c r="P32" s="27"/>
+      <c r="L32" s="22"/>
+      <c r="M32" s="22"/>
+      <c r="N32" s="22"/>
+      <c r="O32" s="22"/>
+      <c r="P32" s="22"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
@@ -1816,11 +1816,11 @@
       <c r="J33" s="19">
         <v>54</v>
       </c>
-      <c r="L33" s="27"/>
-      <c r="M33" s="27"/>
-      <c r="N33" s="27"/>
-      <c r="O33" s="27"/>
-      <c r="P33" s="27"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="22"/>
+      <c r="N33" s="22"/>
+      <c r="O33" s="22"/>
+      <c r="P33" s="22"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
@@ -1853,11 +1853,11 @@
       <c r="J34" s="19">
         <v>62</v>
       </c>
-      <c r="L34" s="27"/>
-      <c r="M34" s="27"/>
-      <c r="N34" s="27"/>
-      <c r="O34" s="27"/>
-      <c r="P34" s="27"/>
+      <c r="L34" s="22"/>
+      <c r="M34" s="22"/>
+      <c r="N34" s="22"/>
+      <c r="O34" s="22"/>
+      <c r="P34" s="22"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
@@ -1890,11 +1890,11 @@
       <c r="J35" s="19">
         <v>521</v>
       </c>
-      <c r="L35" s="27"/>
-      <c r="M35" s="27"/>
-      <c r="N35" s="27"/>
-      <c r="O35" s="27"/>
-      <c r="P35" s="27"/>
+      <c r="L35" s="22"/>
+      <c r="M35" s="22"/>
+      <c r="N35" s="22"/>
+      <c r="O35" s="22"/>
+      <c r="P35" s="22"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
@@ -1927,41 +1927,41 @@
       <c r="J36" s="18">
         <v>161</v>
       </c>
-      <c r="L36" s="27"/>
-      <c r="M36" s="27"/>
-      <c r="N36" s="27"/>
-      <c r="O36" s="27"/>
-      <c r="P36" s="27"/>
+      <c r="L36" s="22"/>
+      <c r="M36" s="22"/>
+      <c r="N36" s="22"/>
+      <c r="O36" s="22"/>
+      <c r="P36" s="22"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="L37" s="27"/>
-      <c r="M37" s="27"/>
-      <c r="N37" s="27"/>
-      <c r="O37" s="27"/>
-      <c r="P37" s="27"/>
+      <c r="L37" s="22"/>
+      <c r="M37" s="22"/>
+      <c r="N37" s="22"/>
+      <c r="O37" s="22"/>
+      <c r="P37" s="22"/>
     </row>
     <row r="38" spans="1:16" ht="19" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
-      <c r="B38" s="21" t="s">
+      <c r="B38" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C38" s="22"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="24" t="s">
+      <c r="C38" s="26"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F38" s="24"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="21" t="s">
+      <c r="F38" s="23"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="I38" s="22"/>
-      <c r="J38" s="23"/>
-      <c r="L38" s="27"/>
-      <c r="M38" s="27"/>
-      <c r="N38" s="27"/>
-      <c r="O38" s="27"/>
-      <c r="P38" s="27"/>
+      <c r="I38" s="26"/>
+      <c r="J38" s="27"/>
+      <c r="L38" s="22"/>
+      <c r="M38" s="22"/>
+      <c r="N38" s="22"/>
+      <c r="O38" s="22"/>
+      <c r="P38" s="22"/>
     </row>
     <row r="39" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
@@ -1994,11 +1994,11 @@
       <c r="J39" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="L39" s="27"/>
-      <c r="M39" s="27"/>
-      <c r="N39" s="27"/>
-      <c r="O39" s="27"/>
-      <c r="P39" s="27"/>
+      <c r="L39" s="22"/>
+      <c r="M39" s="22"/>
+      <c r="N39" s="22"/>
+      <c r="O39" s="22"/>
+      <c r="P39" s="22"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" s="11" t="s">
@@ -2040,11 +2040,11 @@
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="L40" s="27"/>
-      <c r="M40" s="27"/>
-      <c r="N40" s="27"/>
-      <c r="O40" s="27"/>
-      <c r="P40" s="27"/>
+      <c r="L40" s="22"/>
+      <c r="M40" s="22"/>
+      <c r="N40" s="22"/>
+      <c r="O40" s="22"/>
+      <c r="P40" s="22"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
@@ -2086,11 +2086,11 @@
         <f t="shared" si="5"/>
         <v>521</v>
       </c>
-      <c r="L41" s="27"/>
-      <c r="M41" s="27"/>
-      <c r="N41" s="27"/>
-      <c r="O41" s="27"/>
-      <c r="P41" s="27"/>
+      <c r="L41" s="22"/>
+      <c r="M41" s="22"/>
+      <c r="N41" s="22"/>
+      <c r="O41" s="22"/>
+      <c r="P41" s="22"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
@@ -2132,11 +2132,11 @@
         <f t="shared" si="6"/>
         <v>163.90909090909091</v>
       </c>
-      <c r="L42" s="27"/>
-      <c r="M42" s="27"/>
-      <c r="N42" s="27"/>
-      <c r="O42" s="27"/>
-      <c r="P42" s="27"/>
+      <c r="L42" s="22"/>
+      <c r="M42" s="22"/>
+      <c r="N42" s="22"/>
+      <c r="O42" s="22"/>
+      <c r="P42" s="22"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
@@ -2178,14 +2178,19 @@
         <f t="shared" si="7"/>
         <v>70</v>
       </c>
-      <c r="L43" s="27"/>
-      <c r="M43" s="27"/>
-      <c r="N43" s="27"/>
-      <c r="O43" s="27"/>
-      <c r="P43" s="27"/>
+      <c r="L43" s="22"/>
+      <c r="M43" s="22"/>
+      <c r="N43" s="22"/>
+      <c r="O43" s="22"/>
+      <c r="P43" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="A1:J1"/>
     <mergeCell ref="L3:P20"/>
     <mergeCell ref="L25:P43"/>
     <mergeCell ref="L24:N24"/>
@@ -2193,11 +2198,6 @@
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="E24:G24"/>
     <mergeCell ref="H24:J24"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="A1:J1"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="E16:G16"/>
     <mergeCell ref="H16:J16"/>
